--- a/data_year/zb/教育/各级各类民办教育基本情况/各级各类民办教育专任教师数.xlsx
+++ b/data_year/zb/教育/各级各类民办教育基本情况/各级各类民办教育专任教师数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,597 +508,476 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>10.3449</v>
+      </c>
       <c r="D2" t="n">
-        <v>2.6048</v>
+        <v>1.7794</v>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>11.1304</v>
+      </c>
+      <c r="G2" t="n">
+        <v>68.04040000000001</v>
+      </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>22.948</v>
+      </c>
+      <c r="J2" t="n">
+        <v>34.362</v>
+      </c>
+      <c r="K2" t="n">
+        <v>12.672</v>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>44.7069</v>
+      </c>
+      <c r="N2" t="n">
+        <v>23.6468</v>
+      </c>
       <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>9.5501</v>
+      </c>
       <c r="D3" t="n">
-        <v>2.2528</v>
+        <v>1.6107</v>
       </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>14.7525</v>
+      </c>
+      <c r="G3" t="n">
+        <v>80.77719999999999</v>
+      </c>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>13.4809</v>
+      </c>
+      <c r="J3" t="n">
+        <v>45.2249</v>
+      </c>
+      <c r="K3" t="n">
+        <v>13.2733</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>54.775</v>
+      </c>
+      <c r="N3" t="n">
+        <v>25.2441</v>
+      </c>
       <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>8.811999999999999</v>
+      </c>
       <c r="D4" t="n">
-        <v>2.1776</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1.4868</v>
+      </c>
+      <c r="E4" t="n">
+        <v>23.7902</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14.1517</v>
+      </c>
+      <c r="G4" t="n">
+        <v>91.3395</v>
+      </c>
+      <c r="H4" t="n">
+        <v>23.7902</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14.3115</v>
+      </c>
+      <c r="J4" t="n">
+        <v>23.4048</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13.9657</v>
+      </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>32.2168</v>
+      </c>
+      <c r="N4" t="n">
+        <v>26.718</v>
+      </c>
       <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>7.7881</v>
+      </c>
       <c r="D5" t="n">
-        <v>2.056</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1.335</v>
+      </c>
+      <c r="E5" t="n">
+        <v>25.8662</v>
+      </c>
+      <c r="F5" t="n">
+        <v>12.9634</v>
+      </c>
+      <c r="G5" t="n">
+        <v>102.0215</v>
+      </c>
+      <c r="H5" t="n">
+        <v>25.8662</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="J5" t="n">
+        <v>24.0426</v>
+      </c>
+      <c r="K5" t="n">
+        <v>13.8815</v>
+      </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>31.8307</v>
+      </c>
+      <c r="N5" t="n">
+        <v>28.1415</v>
+      </c>
       <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>7.429</v>
+      </c>
       <c r="D6" t="n">
-        <v>1.9121</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1.2083</v>
+      </c>
+      <c r="E6" t="n">
+        <v>28.6825</v>
+      </c>
+      <c r="F6" t="n">
+        <v>13.5365</v>
+      </c>
+      <c r="G6" t="n">
+        <v>113.1802</v>
+      </c>
+      <c r="H6" t="n">
+        <v>28.6821</v>
+      </c>
+      <c r="I6" t="n">
+        <v>16.8023</v>
+      </c>
+      <c r="J6" t="n">
+        <v>26.2622</v>
+      </c>
+      <c r="K6" t="n">
+        <v>13.6303</v>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>33.6912</v>
+      </c>
+      <c r="N6" t="n">
+        <v>29.3954</v>
+      </c>
       <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>10.7355</v>
+        <v>7.2075</v>
       </c>
       <c r="D7" t="n">
-        <v>1.7881</v>
+        <v>1.1107</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0113</v>
+        <v>28.5969</v>
       </c>
       <c r="F7" t="n">
-        <v>11.4934</v>
+        <v>13.9656</v>
       </c>
       <c r="G7" t="n">
-        <v>55.2348</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
+        <v>127.1211</v>
+      </c>
+      <c r="H7" t="n">
+        <v>28.5965</v>
+      </c>
       <c r="I7" t="n">
-        <v>21.9684</v>
+        <v>35.2122</v>
       </c>
       <c r="J7" t="n">
-        <v>33.9712</v>
+        <v>15.327</v>
       </c>
       <c r="K7" t="n">
-        <v>11.6218</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.0113</v>
-      </c>
+        <v>13.2124</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>44.7067</v>
+        <v>22.5345</v>
       </c>
       <c r="N7" t="n">
-        <v>22.2008</v>
+        <v>30.4817</v>
       </c>
       <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="n">
-        <v>10.3449</v>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>1.7794</v>
+        <v>1.0326</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>11.1304</v>
+        <v>13.2441</v>
       </c>
       <c r="G8" t="n">
-        <v>68.04040000000001</v>
+        <v>139.3454</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>22.948</v>
+        <v>38.3155</v>
       </c>
       <c r="J8" t="n">
-        <v>34.362</v>
+        <v>16.7881</v>
       </c>
       <c r="K8" t="n">
-        <v>12.672</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>44.7069</v>
-      </c>
+        <v>12.3428</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>23.6468</v>
+        <v>31.1512</v>
       </c>
       <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>9.5501</v>
+        <v>7.309</v>
       </c>
       <c r="D9" t="n">
-        <v>1.6107</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
+        <v>0.9643</v>
+      </c>
+      <c r="E9" t="n">
+        <v>33.9069</v>
+      </c>
       <c r="F9" t="n">
-        <v>14.7525</v>
+        <v>16.1478</v>
       </c>
       <c r="G9" t="n">
-        <v>80.77719999999999</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
+        <v>151.0277</v>
+      </c>
+      <c r="H9" t="n">
+        <v>33.9065</v>
+      </c>
       <c r="I9" t="n">
-        <v>13.4809</v>
+        <v>42.0099</v>
       </c>
       <c r="J9" t="n">
-        <v>45.2249</v>
-      </c>
-      <c r="K9" t="n">
-        <v>13.2733</v>
-      </c>
+        <v>18.7498</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>54.775</v>
-      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>25.2441</v>
+        <v>31.6174</v>
       </c>
       <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
-        <v>8.811999999999999</v>
-      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>1.4868</v>
-      </c>
-      <c r="E10" t="n">
-        <v>23.7902</v>
-      </c>
+        <v>0.9096</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>14.1517</v>
+        <v>17.3448</v>
       </c>
       <c r="G10" t="n">
-        <v>91.3395</v>
-      </c>
-      <c r="H10" t="n">
-        <v>23.7902</v>
-      </c>
+        <v>160.8936</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>14.3115</v>
+        <v>46.5227</v>
       </c>
       <c r="J10" t="n">
-        <v>23.4048</v>
+        <v>20.7606</v>
       </c>
       <c r="K10" t="n">
-        <v>13.9657</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>32.2168</v>
-      </c>
+        <v>12.3958</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>26.718</v>
+        <v>32.4338</v>
       </c>
       <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="n">
-        <v>7.7881</v>
-      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>1.335</v>
-      </c>
-      <c r="E11" t="n">
-        <v>25.8662</v>
-      </c>
+        <v>0.8569</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>12.9634</v>
+        <v>21.1959</v>
       </c>
       <c r="G11" t="n">
-        <v>102.0215</v>
-      </c>
-      <c r="H11" t="n">
-        <v>25.8662</v>
-      </c>
+        <v>169.2986</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>15.18</v>
+        <v>50.8688</v>
       </c>
       <c r="J11" t="n">
-        <v>24.0426</v>
+        <v>23.1504</v>
       </c>
       <c r="K11" t="n">
-        <v>13.8815</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>31.8307</v>
-      </c>
+        <v>12.0617</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>28.1415</v>
+        <v>33.9777</v>
       </c>
       <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="n">
-        <v>7.429</v>
-      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>1.2083</v>
-      </c>
-      <c r="E12" t="n">
-        <v>28.6825</v>
-      </c>
+        <v>0.8106</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>13.5365</v>
+        <v>23.3936</v>
       </c>
       <c r="G12" t="n">
-        <v>113.1802</v>
-      </c>
-      <c r="H12" t="n">
-        <v>28.6821</v>
-      </c>
+        <v>161.8786</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>16.8023</v>
+        <v>53.9655</v>
       </c>
       <c r="J12" t="n">
-        <v>26.2622</v>
+        <v>26.6041</v>
       </c>
       <c r="K12" t="n">
-        <v>13.6303</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>33.6912</v>
-      </c>
+        <v>11.7154</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>29.3954</v>
+        <v>36.8925</v>
       </c>
       <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>7.2075</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.1107</v>
-      </c>
+        <v>10.2404</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>28.5969</v>
-      </c>
-      <c r="F13" t="n">
-        <v>13.9656</v>
-      </c>
+        <v>49.0736</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>127.1211</v>
-      </c>
-      <c r="H13" t="n">
-        <v>28.5965</v>
-      </c>
+        <v>161.2464</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>35.2122</v>
+        <v>23.0355</v>
       </c>
       <c r="J13" t="n">
-        <v>15.327</v>
+        <v>31.2528</v>
       </c>
       <c r="K13" t="n">
-        <v>13.2124</v>
+        <v>5.9874</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>22.5345</v>
+        <v>42.6827</v>
       </c>
       <c r="N13" t="n">
-        <v>30.4817</v>
+        <v>35.9668</v>
       </c>
       <c r="O13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>1.0326</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>13.2441</v>
-      </c>
-      <c r="G14" t="n">
-        <v>139.3454</v>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="n">
-        <v>38.3155</v>
-      </c>
-      <c r="J14" t="n">
-        <v>16.7881</v>
-      </c>
-      <c r="K14" t="n">
-        <v>12.3428</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>31.1512</v>
-      </c>
-      <c r="O14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
-        <v>7.309</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.9643</v>
-      </c>
-      <c r="E15" t="n">
-        <v>33.9069</v>
-      </c>
-      <c r="F15" t="n">
-        <v>16.1478</v>
-      </c>
-      <c r="G15" t="n">
-        <v>151.0277</v>
-      </c>
-      <c r="H15" t="n">
-        <v>33.9065</v>
-      </c>
-      <c r="I15" t="n">
-        <v>42.0099</v>
-      </c>
-      <c r="J15" t="n">
-        <v>18.7498</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>31.6174</v>
-      </c>
-      <c r="O15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>0.9096</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>17.3448</v>
-      </c>
-      <c r="G16" t="n">
-        <v>160.8936</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>46.5227</v>
-      </c>
-      <c r="J16" t="n">
-        <v>20.7606</v>
-      </c>
-      <c r="K16" t="n">
-        <v>12.3958</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
-        <v>32.4338</v>
-      </c>
-      <c r="O16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
-        <v>0.8569</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>21.1959</v>
-      </c>
-      <c r="G17" t="n">
-        <v>169.2986</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>50.8688</v>
-      </c>
-      <c r="J17" t="n">
-        <v>23.1504</v>
-      </c>
-      <c r="K17" t="n">
-        <v>12.0617</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>33.9777</v>
-      </c>
-      <c r="O17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
-        <v>0.8106</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>23.3936</v>
-      </c>
-      <c r="G18" t="n">
-        <v>161.8786</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
-        <v>53.9655</v>
-      </c>
-      <c r="J18" t="n">
-        <v>26.6041</v>
-      </c>
-      <c r="K18" t="n">
-        <v>11.7154</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
-        <v>36.8925</v>
-      </c>
-      <c r="O18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
